--- a/63-Equipment Set Bonuses 装备套装奖励.xlsx
+++ b/63-Equipment Set Bonuses 装备套装奖励.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="1" r:id="rId1"/>
     <sheet name="插件参数" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>The Equipment Set Bonuses plugin allows you to create custom bonuses when equipping matching sets of equipment.</t>
   </si>
@@ -55,6 +68,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">这会将 此物品 指定给 套装。
 </t>
     </r>
@@ -72,6 +92,50 @@
   </si>
   <si>
     <t>武器、防具</t>
+  </si>
+  <si>
+    <t>&lt;Equip Set Wildcard&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">为此装备指定通配符效果。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能分配给常规装备套装。
+这将为角色当前装备的每个套装添加+1
+ ·未配备的装备套件将不会应用其效果。
+ ·如果装备了多个装备奖励集，则+1的效果将应用于每一个套装。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Equip Set Wildcards: name, name, name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作为特定套装的通配符。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name：套装名称。
+这将为角色当前装备的每个套装添加+1
+ ·未配备的装备套件将不会应用其效果。
+ ·如果装备了多个装备奖励集，且它们都在name列出来了，则+1的效果将应用于每一个套装。</t>
+    </r>
   </si>
   <si>
     <t>Equipment Set Graphics-Related Notetags  套装图形 相关标签</t>
@@ -83,6 +147,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">给这个角色一套面部图像。
 </t>
     </r>
@@ -217,6 +288,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">给这个角色一套精灵图像。
 </t>
     </r>
@@ -271,6 +349,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">给这个角色一套SV精灵。
 </t>
     </r>
@@ -303,6 +388,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">给这个角色一套菜单用立绘。
 </t>
     </r>
@@ -335,6 +427,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">给这个角色一套战斗用立绘。
 </t>
     </r>
@@ -368,6 +467,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">套装名称。
 此集合的名称用于数据库和游戏中。
 </t>
@@ -415,6 +521,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">显示在工具提示窗口中每个部件旁边的文本。
 </t>
     </r>
@@ -450,6 +563,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">您希望何时应用 Add 奖励参数？
 </t>
     </r>
@@ -521,18 +641,42 @@
   <si>
     <t>%1-%2</t>
   </si>
+  <si>
+    <t>Wildcard Format</t>
+  </si>
+  <si>
+    <t>通配符如何显示？  %1 - Wildcard Sets</t>
+  </si>
+  <si>
+    <t>\C[5]Wildcard Sets:\c[0] %1</t>
+  </si>
+  <si>
+    <t>\C[5]百搭套装:\c[0] %1</t>
+  </si>
+  <si>
+    <t>Wildcard: Any Set</t>
+  </si>
+  <si>
+    <t>当通配符可用于任何集合时，使用什么文本？</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>任意</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,22 +706,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,61 +801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,46 +816,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +831,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,181 +886,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,17 +1080,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,11 +1143,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,23 +1161,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,162 +1177,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,52 +1355,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1286,8 +1423,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>572135</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2629535</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1306,7 +1443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8592185" y="2828925"/>
+          <a:off x="8754110" y="2828925"/>
           <a:ext cx="2552700" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1610,10 +1747,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1789,42 +1926,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="14" ht="61.5" spans="1:3">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" ht="85.5" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="61.5" spans="1:3">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" ht="85.5" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" t="s">
         <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:3">
@@ -1835,7 +1972,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:3">
@@ -1846,7 +1983,29 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1871,129 +2030,158 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="39" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="61.5" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
